--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail13 Features.xlsx
@@ -5070,7 +5070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5081,29 +5081,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="21" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5124,115 +5122,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5249,72 +5237,66 @@
         <v>3.193006056425068e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.5034258396505698</v>
+        <v>1.032607139595403e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.066785628319227</v>
+        <v>3.644770535858997e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.032607139595403e-06</v>
+        <v>-0.04328473923488108</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.644770535858997e-06</v>
+        <v>0.06519575667613789</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.04328473923488108</v>
+        <v>0.006124236606357925</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.06519575667613789</v>
+        <v>1.937003160967556</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.006124236606357925</v>
+        <v>3.038074821956342</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.956379915477178</v>
+        <v>5.313389168375741</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.038074821956342</v>
+        <v>3.448793262331242e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.313389168375741</v>
+        <v>5783811316.048895</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.448793262331242e-17</v>
+        <v>2.091710281989914e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>5783811316.048895</v>
+        <v>1153.706646621185</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.091710281989914e-08</v>
+        <v>6.825722308214224e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1153.706646621185</v>
+        <v>9.961334599671847</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>6.825722308214224e-05</v>
+        <v>1.914740475416986</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.961334599671847</v>
+        <v>0.006773040496547355</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.914740475416986</v>
+        <v>5.667428016822808</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006773040496547355</v>
+        <v>0.9607135222129446</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5.667428016822808</v>
+        <v>1.059110842701315</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9607135222129446</v>
+        <v>68</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.059110842701315</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>6.364584575225306</v>
       </c>
     </row>
@@ -5329,72 +5311,66 @@
         <v>3.199650391908808e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.5557381999443065</v>
+        <v>1.040089614070628e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.9762190462885441</v>
+        <v>3.630789597202769e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.040089614070628e-06</v>
+        <v>-0.04433053904174719</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.630789597202769e-06</v>
+        <v>0.06407033820873234</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.04433053904174719</v>
+        <v>0.006070067672397638</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.06407033820873234</v>
+        <v>1.935681642998047</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.006070067672397638</v>
+        <v>3.145235520261386</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.951527010035686</v>
+        <v>5.353672042123016</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.145235520261386</v>
+        <v>3.397088699922775e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.353672042123016</v>
+        <v>5730668162.778097</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.397088699922775e-17</v>
+        <v>2.100523017056553e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>5730668162.778097</v>
+        <v>1115.622870945335</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.100523017056553e-08</v>
+        <v>7.535730349660582e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1115.622870945335</v>
+        <v>7.66649845982406</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>7.535730349660582e-05</v>
+        <v>1.74672830229105</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.66649845982406</v>
+        <v>0.004429140481572155</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.74672830229105</v>
+        <v>4.668879486001459</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.004429140481572155</v>
+        <v>0.9600834670747699</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.668879486001459</v>
+        <v>1.066855251543581</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9600834670747699</v>
+        <v>68</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.066855251543581</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>3.522116481792198</v>
       </c>
     </row>
@@ -5409,72 +5385,66 @@
         <v>3.196202655230895e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.6095904206601507</v>
+        <v>1.046864981976267e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.8696314627222423</v>
+        <v>3.616283668778345e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.046864981976267e-06</v>
+        <v>-0.04656998013347403</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.616283668778345e-06</v>
+        <v>0.06091790119480361</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.04656998013347403</v>
+        <v>0.005878532352478116</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.06091790119480361</v>
+        <v>1.93220349691172</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.005878532352478116</v>
+        <v>3.315610166891178</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.949089100734736</v>
+        <v>5.223943925234964</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.315610166891178</v>
+        <v>3.567905972438689e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.223943925234964</v>
+        <v>5430278439.20667</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.567905972438689e-17</v>
+        <v>2.214081001381707e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>5430278439.20667</v>
+        <v>1052.101398950771</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.214081001381707e-08</v>
+        <v>8.67740980822132e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1052.101398950771</v>
+        <v>7.03139803107248</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>8.67740980822132e-05</v>
+        <v>1.267009218912494</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.03139803107248</v>
+        <v>0.004290159852679234</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.267009218912494</v>
+        <v>4.065050793242981</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.004290159852679234</v>
+        <v>0.9612558624895106</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.065050793242981</v>
+        <v>1.110910043077936</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9612558624895106</v>
+        <v>68</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.110910043077936</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>2.307463650940099</v>
       </c>
     </row>
@@ -5489,72 +5459,66 @@
         <v>3.175147182930606e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.6626581941384382</v>
+        <v>1.051785753643813e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.7452617700084931</v>
+        <v>3.600880945176005e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.051785753643813e-06</v>
+        <v>-0.05025126261312821</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.600880945176005e-06</v>
+        <v>0.05337992704518012</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.05025126261312821</v>
+        <v>0.005372096121467425</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.05337992704518012</v>
+        <v>1.932456382284693</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.005372096121467425</v>
+        <v>2.639397674482531</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.948052249372926</v>
+        <v>6.128958287135186</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.639397674482531</v>
+        <v>5.525567991113517e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>6.128958287135186</v>
+        <v>3533425375.42408</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.525567991113517e-17</v>
+        <v>3.410625368426064e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>3533425375.42408</v>
+        <v>689.8724065533704</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.410625368426064e-08</v>
+        <v>9.319166554759387e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>689.8724065533704</v>
+        <v>6.647847246419809</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>9.319166554759387e-05</v>
+        <v>1.418001890858435</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.647847246419809</v>
+        <v>0.00411850063296211</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.418001890858435</v>
+        <v>4.021867203649131</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.00411850063296211</v>
+        <v>0.9605226872504784</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.021867203649131</v>
+        <v>1.135170307698257</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9605226872504784</v>
+        <v>68</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.135170307698257</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.771548201552404</v>
       </c>
     </row>
@@ -5931,7 +5895,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.226807785156691</v>
+        <v>1.202196325339028</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.516867907540616</v>
@@ -6020,7 +5984,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.230436475108431</v>
+        <v>1.204714790491135</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.497922610063537</v>
@@ -6109,7 +6073,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.213465722150189</v>
+        <v>1.179372183568698</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.461536534851143</v>
@@ -6198,7 +6162,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.194317931854011</v>
+        <v>1.169872002741658</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.338856583407318</v>
@@ -6287,7 +6251,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.312444347913803</v>
+        <v>1.289189618624925</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.926838152134191</v>
@@ -6376,7 +6340,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.327994755925362</v>
+        <v>1.298722129174522</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.279068499177035</v>
@@ -6465,7 +6429,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.347758150293913</v>
+        <v>1.313529594234349</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.420753122752854</v>
@@ -6554,7 +6518,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.336132643447419</v>
+        <v>1.305601114923089</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.428113559151388</v>
@@ -6643,7 +6607,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.328275484668665</v>
+        <v>1.292917510106068</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.425953994892681</v>
@@ -6732,7 +6696,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.326012951720134</v>
+        <v>1.292504028389142</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.335716292970071</v>
@@ -6821,7 +6785,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.323004007273539</v>
+        <v>1.288514371186255</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.601040941929103</v>
@@ -6910,7 +6874,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.315445520966013</v>
+        <v>1.284025188028688</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.382117928607272</v>
@@ -6999,7 +6963,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.319256786105568</v>
+        <v>1.289732099365094</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.392342962636307</v>
@@ -7088,7 +7052,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.311911356856658</v>
+        <v>1.284299342192517</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.549343013071286</v>
@@ -7177,7 +7141,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.314365024493837</v>
+        <v>1.283626697482657</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.303060811777689</v>
@@ -7266,7 +7230,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.303763929689804</v>
+        <v>1.271854256163243</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.374434784408909</v>
@@ -7355,7 +7319,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.305534243265887</v>
+        <v>1.272271798198714</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.380671287324271</v>
@@ -7444,7 +7408,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.310960339587705</v>
+        <v>1.274567740426623</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.573167708097783</v>
@@ -7533,7 +7497,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.305020315849719</v>
+        <v>1.271129538701206</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.566766821823761</v>
@@ -7622,7 +7586,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.314013513540406</v>
+        <v>1.274948460430199</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.392744042201628</v>
@@ -7711,7 +7675,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.320207520074936</v>
+        <v>1.282838165460616</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.533807897617914</v>
@@ -7800,7 +7764,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.322732354853679</v>
+        <v>1.292218864183591</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.328417811375787</v>
@@ -7889,7 +7853,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.323461979046484</v>
+        <v>1.294816019734226</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.427518448126097</v>
@@ -7978,7 +7942,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.327723340361087</v>
+        <v>1.298881705406435</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.40088148752349</v>
@@ -8067,7 +8031,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.329445381822216</v>
+        <v>1.302122343551265</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.551128313521344</v>
@@ -8156,7 +8120,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.335786976868739</v>
+        <v>1.307784355498729</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.514105324209233</v>
@@ -8245,7 +8209,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.340032450757712</v>
+        <v>1.309362936125958</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.442194188762483</v>
@@ -8334,7 +8298,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.349481961984656</v>
+        <v>1.315438527167458</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.772955179618464</v>
@@ -8423,7 +8387,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.356788744193565</v>
+        <v>1.322062908757574</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.794122250747971</v>
@@ -8512,7 +8476,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.353077201594802</v>
+        <v>1.317990242974613</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.573307140413518</v>
@@ -8601,7 +8565,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.362252120546549</v>
+        <v>1.325935853443906</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.534341774659419</v>
@@ -8690,7 +8654,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.357448615563794</v>
+        <v>1.319793470474754</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.303179430083428</v>
@@ -8779,7 +8743,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.364591848434667</v>
+        <v>1.323714393354732</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.300033745133834</v>
@@ -8868,7 +8832,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.357124232190007</v>
+        <v>1.319203031754265</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.514696553179467</v>
@@ -8957,7 +8921,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.357347193914111</v>
+        <v>1.325237598232326</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.378615691439207</v>
@@ -9046,7 +9010,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.361555950101212</v>
+        <v>1.327397126675116</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.439709751225108</v>
@@ -9135,7 +9099,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.36134267717827</v>
+        <v>1.324898431032829</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.462826426601559</v>
@@ -9224,7 +9188,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.374694635422875</v>
+        <v>1.336266767842193</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.497513730147262</v>
@@ -9313,7 +9277,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.372611296061813</v>
+        <v>1.33542266629872</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.430616240867246</v>
@@ -9402,7 +9366,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.38063343331976</v>
+        <v>1.334034302180261</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.707883491178393</v>
@@ -9491,7 +9455,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.364572414144461</v>
+        <v>1.323647406785649</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.499050712336325</v>
@@ -9580,7 +9544,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.372141087959085</v>
+        <v>1.330982429105259</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.628568376178787</v>
@@ -9669,7 +9633,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.364407004537762</v>
+        <v>1.320674496792019</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.593885785170191</v>
@@ -9758,7 +9722,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.340816816648154</v>
+        <v>1.306268190449614</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.620150234533809</v>
@@ -9847,7 +9811,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.34479348785966</v>
+        <v>1.307363900285763</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.426196798693775</v>
@@ -9936,7 +9900,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.352951892037163</v>
+        <v>1.31679458387844</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.46269624342822</v>
@@ -10025,7 +9989,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.363325806606453</v>
+        <v>1.324980234136697</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.540270932127971</v>
@@ -10114,7 +10078,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.361886029361401</v>
+        <v>1.329047823295382</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.57177656230341</v>
@@ -10203,7 +10167,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.366601933491022</v>
+        <v>1.328964241389036</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.789968683708917</v>
@@ -10489,7 +10453,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.312740102641828</v>
+        <v>1.351190284841766</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.658519262552831</v>
@@ -10578,7 +10542,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.290591416611971</v>
+        <v>1.323979183890499</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.591173895244516</v>
@@ -10667,7 +10631,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.235053168754361</v>
+        <v>1.249761813067241</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.5486829007045</v>
@@ -10756,7 +10720,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.280314186751398</v>
+        <v>1.282909565959759</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.353236105032799</v>
@@ -10845,7 +10809,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.567279161347724</v>
+        <v>1.54344261532803</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.250290669283579</v>
@@ -10934,7 +10898,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.549148378397679</v>
+        <v>1.525884990387649</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.439870144120175</v>
@@ -11023,7 +10987,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.545092613029708</v>
+        <v>1.525595171014764</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.726452443321053</v>
@@ -11112,7 +11076,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.550016906314907</v>
+        <v>1.533443063732697</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.815605191825325</v>
@@ -11201,7 +11165,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.541461030772835</v>
+        <v>1.531205599041557</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.537604240642463</v>
@@ -11290,7 +11254,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.524915703157232</v>
+        <v>1.529402471275181</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.562438731968819</v>
@@ -11379,7 +11343,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.521790257225134</v>
+        <v>1.521621645163624</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.730939894207461</v>
@@ -11468,7 +11432,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.525268029791146</v>
+        <v>1.52725764528248</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.794661651766475</v>
@@ -11557,7 +11521,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.529741308942851</v>
+        <v>1.531050458060554</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.790340839397075</v>
@@ -11646,7 +11610,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.534601409725187</v>
+        <v>1.534602204818057</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.69981527683365</v>
@@ -11735,7 +11699,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.530133108221364</v>
+        <v>1.528179696462171</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.537660557957197</v>
@@ -11824,7 +11788,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.506277448106923</v>
+        <v>1.500240587406181</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.535327749501883</v>
@@ -11913,7 +11877,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.496660447108003</v>
+        <v>1.490657978073216</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.610453788837879</v>
@@ -12002,7 +11966,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.49779982017652</v>
+        <v>1.485610041582818</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.663963843044758</v>
@@ -12091,7 +12055,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.493765103273078</v>
+        <v>1.480086133011616</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.580438192981078</v>
@@ -12180,7 +12144,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.513625091418451</v>
+        <v>1.499075189648627</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.934820020119507</v>
@@ -12269,7 +12233,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.529925692743252</v>
+        <v>1.510577771816184</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.977308734046984</v>
@@ -12358,7 +12322,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.552541857609041</v>
+        <v>1.536495526078951</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.875134173970333</v>
@@ -12447,7 +12411,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.558880802969507</v>
+        <v>1.539057498342628</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.215289082089658</v>
@@ -12536,7 +12500,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.571199121370473</v>
+        <v>1.547965756954596</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.083680154430107</v>
@@ -12625,7 +12589,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.585476697154683</v>
+        <v>1.551429096496663</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.23854085051991</v>
@@ -12714,7 +12678,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.585495653734049</v>
+        <v>1.552691191501985</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.294691711000204</v>
@@ -12803,7 +12767,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.596649197474781</v>
+        <v>1.560435889916105</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.94301215179279</v>
@@ -12892,7 +12856,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.605782574575687</v>
+        <v>1.565637702164089</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.313897282480653</v>
@@ -12981,7 +12945,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.593344832114231</v>
+        <v>1.554900966287948</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.382859970702773</v>
@@ -13070,7 +13034,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.591059850294779</v>
+        <v>1.555399412076454</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.298499251566296</v>
@@ -13159,7 +13123,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.614561406420265</v>
+        <v>1.579584169550419</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.986545753510284</v>
@@ -13248,7 +13212,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.618403153142193</v>
+        <v>1.581260162250096</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.380874582337885</v>
@@ -13337,7 +13301,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.616919980052059</v>
+        <v>1.574420703448225</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.291841624100173</v>
@@ -13426,7 +13390,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.614652241392998</v>
+        <v>1.577019072979522</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.217964279452632</v>
@@ -13515,7 +13479,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.617892011492017</v>
+        <v>1.580662077937635</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.317262212608648</v>
@@ -13604,7 +13568,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.613195819096477</v>
+        <v>1.575049947226883</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.416982830033918</v>
@@ -13693,7 +13657,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.587550433582366</v>
+        <v>1.549315165186706</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.289724298851936</v>
@@ -13782,7 +13746,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.578105340612199</v>
+        <v>1.534812861802941</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.193802995247722</v>
@@ -13871,7 +13835,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.567771308180255</v>
+        <v>1.524532291006299</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.88371018388762</v>
@@ -13960,7 +13924,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.561838384678402</v>
+        <v>1.521945403875055</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.188880244975898</v>
@@ -14049,7 +14013,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.566560956016416</v>
+        <v>1.525982185012424</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.997984022990984</v>
@@ -14138,7 +14102,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.558493245067828</v>
+        <v>1.516647162355346</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.14201797101757</v>
@@ -14227,7 +14191,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.55917637676869</v>
+        <v>1.514571113725338</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.975433452380188</v>
@@ -14316,7 +14280,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.563668605046776</v>
+        <v>1.516616131593381</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.926067478657062</v>
@@ -14405,7 +14369,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.56716033880616</v>
+        <v>1.519663684534104</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.106560986622162</v>
@@ -14494,7 +14458,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.576690864948683</v>
+        <v>1.531410056344663</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.800160433401144</v>
@@ -14583,7 +14547,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.579000878959406</v>
+        <v>1.533761534054656</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.201862897530761</v>
@@ -14672,7 +14636,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.593704814124034</v>
+        <v>1.552000853717995</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.922720506186767</v>
@@ -14761,7 +14725,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.605572030213305</v>
+        <v>1.559342537222889</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.205273855298322</v>
@@ -15047,7 +15011,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.509208186852085</v>
+        <v>1.514709925236759</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.955447640655601</v>
@@ -15136,7 +15100,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.504789204070089</v>
+        <v>1.504571693091043</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.893522724874935</v>
@@ -15225,7 +15189,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.459257849314227</v>
+        <v>1.437676698946973</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.735800995481066</v>
@@ -15314,7 +15278,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.485051570951211</v>
+        <v>1.450135023148532</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.677949241186762</v>
@@ -15403,7 +15367,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.607742538954229</v>
+        <v>1.551069099045903</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.328929641283629</v>
@@ -15492,7 +15456,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.612677808856452</v>
+        <v>1.542796186578931</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.311215713881345</v>
@@ -15581,7 +15545,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.610010907900869</v>
+        <v>1.5387903827464</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.968125422885088</v>
@@ -15670,7 +15634,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.596147929901649</v>
+        <v>1.529543399250632</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.166097595429667</v>
@@ -15759,7 +15723,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.599265839922634</v>
+        <v>1.523048380872528</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.410017102890376</v>
@@ -15848,7 +15812,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.600590604623241</v>
+        <v>1.525375006102336</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.303654475082767</v>
@@ -15937,7 +15901,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.602244869195049</v>
+        <v>1.526763787365158</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.513575207114818</v>
@@ -16026,7 +15990,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.606445726317125</v>
+        <v>1.521935722950567</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.168045492712515</v>
@@ -16115,7 +16079,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.603643055172111</v>
+        <v>1.522541418848371</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.077329731039655</v>
@@ -16204,7 +16168,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.599655205376014</v>
+        <v>1.521974894510218</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.353297007823471</v>
@@ -16293,7 +16257,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.602726980449914</v>
+        <v>1.522674606481436</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.340797366594977</v>
@@ -16382,7 +16346,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.58988750070952</v>
+        <v>1.509109443372082</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.226735058931348</v>
@@ -16471,7 +16435,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.589477190045133</v>
+        <v>1.510830451872279</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.394074235869039</v>
@@ -16560,7 +16524,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.585497266801287</v>
+        <v>1.502932872444663</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.491196903470802</v>
@@ -16649,7 +16613,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.588487184353773</v>
+        <v>1.511506255093944</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.409023608844129</v>
@@ -16738,7 +16702,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.589148874334092</v>
+        <v>1.510562824992558</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.556386418612429</v>
@@ -16827,7 +16791,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.597788520576864</v>
+        <v>1.522439338178011</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.335347808886373</v>
@@ -16916,7 +16880,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.601668885947589</v>
+        <v>1.529054594103723</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.74929923166885</v>
@@ -17005,7 +16969,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.612339317568968</v>
+        <v>1.534981063289644</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.2350317592047</v>
@@ -17094,7 +17058,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.606714465307639</v>
+        <v>1.537999802348604</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.604489436817329</v>
@@ -17183,7 +17147,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.592116458411408</v>
+        <v>1.524022841468039</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.386495752458468</v>
@@ -17272,7 +17236,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.583420388655555</v>
+        <v>1.516972576732584</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.511717400314624</v>
@@ -17361,7 +17325,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.584510275041495</v>
+        <v>1.52071502187739</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.638274486982567</v>
@@ -17450,7 +17414,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.588497519068665</v>
+        <v>1.515912256161982</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.271641657589673</v>
@@ -17539,7 +17503,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.588514742639575</v>
+        <v>1.510500030846802</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.73981790575431</v>
@@ -17628,7 +17592,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.583580587014294</v>
+        <v>1.505310824103856</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.259300807541221</v>
@@ -17717,7 +17681,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.595233685515357</v>
+        <v>1.5133419848264</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.776791375555199</v>
@@ -17806,7 +17770,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.595810904697059</v>
+        <v>1.509529813177739</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.286823759082821</v>
@@ -17895,7 +17859,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.596566093599624</v>
+        <v>1.516579512788064</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.5654989599461</v>
@@ -17984,7 +17948,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.599371207440822</v>
+        <v>1.51360887124945</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.272222753251811</v>
@@ -18073,7 +18037,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.592327989093277</v>
+        <v>1.505923092247717</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.73485551693665</v>
@@ -18162,7 +18126,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.582857527605193</v>
+        <v>1.495858163883031</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.315777505455084</v>
@@ -18251,7 +18215,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.58144244790873</v>
+        <v>1.487919309463064</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.322684594775482</v>
@@ -18340,7 +18304,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.576977289185471</v>
+        <v>1.481357411724511</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.217807875883683</v>
@@ -18429,7 +18393,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.570766904009188</v>
+        <v>1.474357287888738</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.248504596206657</v>
@@ -18518,7 +18482,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.589153434084766</v>
+        <v>1.486270626511181</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.310149037888944</v>
@@ -18607,7 +18571,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.594005130384933</v>
+        <v>1.489934017899953</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.36745484541648</v>
@@ -18696,7 +18660,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.585564604432459</v>
+        <v>1.482580429114247</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.638797258705749</v>
@@ -18785,7 +18749,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.58627803669253</v>
+        <v>1.488213112868846</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.298898394497996</v>
@@ -18874,7 +18838,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.586679240059616</v>
+        <v>1.492334476795016</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.474462193165363</v>
@@ -18963,7 +18927,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.574308981770819</v>
+        <v>1.481504117598473</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.473542732882325</v>
@@ -19052,7 +19016,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.564410065490633</v>
+        <v>1.473413538386376</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.434240417607681</v>
@@ -19141,7 +19105,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.566821056734521</v>
+        <v>1.474768200902549</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.464836569051192</v>
@@ -19230,7 +19194,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.571664135553971</v>
+        <v>1.480915278150275</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.181169996379379</v>
@@ -19319,7 +19283,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.574117740086844</v>
+        <v>1.486852809878675</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.39589460962279</v>
@@ -19605,7 +19569,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.327657180828844</v>
+        <v>1.319822986023044</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.622824480828231</v>
@@ -19694,7 +19658,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.348185067455507</v>
+        <v>1.335353429013226</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.580039899722538</v>
@@ -19783,7 +19747,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.338412985539066</v>
+        <v>1.306112072324681</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.526047360518129</v>
@@ -19872,7 +19836,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.320984353415796</v>
+        <v>1.288995851311977</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.39716433491972</v>
@@ -19961,7 +19925,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.525917932890187</v>
+        <v>1.466026936647322</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.759877294814668</v>
@@ -20050,7 +20014,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.568904466284022</v>
+        <v>1.489005058806535</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.648277362010047</v>
@@ -20139,7 +20103,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.577806217598561</v>
+        <v>1.495297717012567</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.996401539759608</v>
@@ -20228,7 +20192,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.565650479106843</v>
+        <v>1.486431570761718</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.92891903251581</v>
@@ -20317,7 +20281,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.559426759028156</v>
+        <v>1.478905674372417</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.928101556098262</v>
@@ -20406,7 +20370,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.563596683729692</v>
+        <v>1.485939477552631</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.004142137057889</v>
@@ -20495,7 +20459,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.552276881180733</v>
+        <v>1.487164180322378</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.004036495428958</v>
@@ -20584,7 +20548,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.543701435008505</v>
+        <v>1.478110829341728</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.871116173053594</v>
@@ -20673,7 +20637,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.550056475566293</v>
+        <v>1.4871520613206</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.959579839449511</v>
@@ -20762,7 +20726,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.544704088078588</v>
+        <v>1.485670531931319</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.111811981380728</v>
@@ -20851,7 +20815,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.555062200516971</v>
+        <v>1.494226300285745</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.626041612499581</v>
@@ -20940,7 +20904,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.542315829895384</v>
+        <v>1.481735717408657</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.734659253787776</v>
@@ -21029,7 +20993,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.538583865610751</v>
+        <v>1.473996275624638</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.984112361432358</v>
@@ -21118,7 +21082,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.546592044641308</v>
+        <v>1.479770548008063</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.102690301103789</v>
@@ -21207,7 +21171,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.537702754757638</v>
+        <v>1.480262739400946</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.641189129345862</v>
@@ -21296,7 +21260,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.554458472311285</v>
+        <v>1.495712319675355</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.648833603656149</v>
@@ -21385,7 +21349,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.560296652321634</v>
+        <v>1.496388289354794</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.969907976037471</v>
@@ -21474,7 +21438,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.575328529609523</v>
+        <v>1.511551618028541</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.974247524713016</v>
@@ -21563,7 +21527,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.56799973134428</v>
+        <v>1.500092206214558</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.131955163415118</v>
@@ -21652,7 +21616,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.564198953963023</v>
+        <v>1.503471613552799</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.085516900016331</v>
@@ -21741,7 +21705,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.561276890006658</v>
+        <v>1.499121037195851</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.038141876673884</v>
@@ -21830,7 +21794,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.572065553217943</v>
+        <v>1.500794234346503</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.850375758407201</v>
@@ -21919,7 +21883,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.571399139296303</v>
+        <v>1.503498372561101</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.440073100959669</v>
@@ -22008,7 +21972,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.574939967348088</v>
+        <v>1.501656985127035</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.393189679810259</v>
@@ -22097,7 +22061,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.577591514043363</v>
+        <v>1.494736262295547</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.469070477380374</v>
@@ -22186,7 +22150,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.570340541674163</v>
+        <v>1.484272614474015</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.475415374985499</v>
@@ -22275,7 +22239,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.579960840999137</v>
+        <v>1.495017753203781</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.392082733905454</v>
@@ -22364,7 +22328,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.570063297826959</v>
+        <v>1.488418204961725</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.867088143369998</v>
@@ -22453,7 +22417,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.567621604747458</v>
+        <v>1.489090329649358</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.965241643171616</v>
@@ -22542,7 +22506,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.567080531705375</v>
+        <v>1.480242567348735</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.690346196089967</v>
@@ -22631,7 +22595,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.559447415977319</v>
+        <v>1.474836964829813</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.060399458176145</v>
@@ -22720,7 +22684,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.567305585050453</v>
+        <v>1.486686912755921</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.700661471248182</v>
@@ -22809,7 +22773,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.555632564701299</v>
+        <v>1.47489893274532</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.734045549805009</v>
@@ -22898,7 +22862,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.568445189745793</v>
+        <v>1.484519440069272</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.064939329871727</v>
@@ -22987,7 +22951,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.574170841984745</v>
+        <v>1.480705953637504</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.797538582913436</v>
@@ -23076,7 +23040,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.583300078544967</v>
+        <v>1.480586699417031</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.883765492121403</v>
@@ -23165,7 +23129,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.570601588143219</v>
+        <v>1.470633297282667</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.98200123489287</v>
@@ -23254,7 +23218,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.587588846190559</v>
+        <v>1.482297958513572</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.832100554911448</v>
@@ -23343,7 +23307,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.578644293589956</v>
+        <v>1.481013411673631</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.794918589382793</v>
@@ -23432,7 +23396,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.580476643688232</v>
+        <v>1.48856489627242</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.112890503950785</v>
@@ -23521,7 +23485,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.570980350148575</v>
+        <v>1.484485098835372</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.99712630699673</v>
@@ -23610,7 +23574,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.568456374953805</v>
+        <v>1.480249137723439</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.69835036115648</v>
@@ -23699,7 +23663,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.571647853533081</v>
+        <v>1.482229465742395</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.782266088488345</v>
@@ -23788,7 +23752,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.571334144238616</v>
+        <v>1.479748262867925</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.840833117392355</v>
@@ -23877,7 +23841,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.5776455900312</v>
+        <v>1.492464758279174</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.134722722435338</v>
@@ -24163,7 +24127,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.172521070992465</v>
+        <v>1.16613694091423</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.57935135250143</v>
@@ -24252,7 +24216,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.174267225395906</v>
+        <v>1.168184091113632</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.502511521128994</v>
@@ -24341,7 +24305,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.143952276736262</v>
+        <v>1.125769109400347</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.419938053772462</v>
@@ -24430,7 +24394,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.216906439485658</v>
+        <v>1.20034520353529</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.385642427081145</v>
@@ -24519,7 +24483,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.400673001364943</v>
+        <v>1.406715378882422</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.893471593937665</v>
@@ -24608,7 +24572,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.439638904703283</v>
+        <v>1.444114068481723</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.250524836393066</v>
@@ -24697,7 +24661,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.471801444207695</v>
+        <v>1.4731296567521</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.462598433545603</v>
@@ -24786,7 +24750,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.423610551117856</v>
+        <v>1.414880089924889</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.889933838052789</v>
@@ -24875,7 +24839,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.386088323253435</v>
+        <v>1.397307539316084</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.998375683616563</v>
@@ -24964,7 +24928,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.357584603502475</v>
+        <v>1.372676804183808</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.941304401508979</v>
@@ -25053,7 +25017,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.369254769844663</v>
+        <v>1.385450564849997</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.878709273048534</v>
@@ -25142,7 +25106,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.370617484505475</v>
+        <v>1.389199796439964</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.961140326983471</v>
@@ -25231,7 +25195,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.36763411486216</v>
+        <v>1.382638781889271</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.961819440337659</v>
@@ -25320,7 +25284,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.339059535651401</v>
+        <v>1.364080774933821</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.032500574911602</v>
@@ -25409,7 +25373,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.34009550597082</v>
+        <v>1.362558329030064</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.990213999513233</v>
@@ -25498,7 +25462,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.338850836617323</v>
+        <v>1.357437883694866</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.003039062139623</v>
@@ -25587,7 +25551,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.348234610899129</v>
+        <v>1.363266977661835</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.004586376923534</v>
@@ -25676,7 +25640,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.346434839362949</v>
+        <v>1.363581957066991</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.022294834865831</v>
@@ -25765,7 +25729,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.350611258989178</v>
+        <v>1.366953411409426</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.049073586107653</v>
@@ -25854,7 +25818,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.355544547137365</v>
+        <v>1.372478572132849</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.024206202014623</v>
@@ -25943,7 +25907,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.354007999280098</v>
+        <v>1.369647163490948</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.076740156042466</v>
@@ -26032,7 +25996,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.350942325156023</v>
+        <v>1.364627832860098</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.059133240051089</v>
@@ -26121,7 +26085,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.385704189285448</v>
+        <v>1.399843013304556</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.846682017004581</v>
@@ -26210,7 +26174,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.384102641015746</v>
+        <v>1.392758795834494</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.328973204551824</v>
@@ -26299,7 +26263,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.39070498846566</v>
+        <v>1.398015618351106</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.239824598158939</v>
@@ -26388,7 +26352,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.38337251786113</v>
+        <v>1.391481437846089</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.327637360392757</v>
@@ -26477,7 +26441,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.384807656261369</v>
+        <v>1.393556464267404</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.357050941743223</v>
@@ -26566,7 +26530,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.408726847814253</v>
+        <v>1.412633111570345</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.087990457200236</v>
@@ -26655,7 +26619,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.427825496002896</v>
+        <v>1.427161589316241</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.332123698720026</v>
@@ -26744,7 +26708,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.426074123353249</v>
+        <v>1.426168568958918</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.258780632636895</v>
@@ -26833,7 +26797,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.430192715729639</v>
+        <v>1.431573947541996</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.28910322605872</v>
@@ -26922,7 +26886,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.4315685766621</v>
+        <v>1.434384896925091</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.156999256902916</v>
@@ -27011,7 +26975,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.40816086305749</v>
+        <v>1.409815215816822</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.310504168855509</v>
@@ -27100,7 +27064,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.403344221708874</v>
+        <v>1.405921256616776</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.293164770992105</v>
@@ -27189,7 +27153,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.39820544638393</v>
+        <v>1.398470720509869</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.263813521702873</v>
@@ -27278,7 +27242,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.398852823415193</v>
+        <v>1.40128736423126</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.276710422505029</v>
@@ -27367,7 +27331,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.415698004129475</v>
+        <v>1.413650454830341</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.23367049953526</v>
@@ -27456,7 +27420,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.45575292612185</v>
+        <v>1.446389805158991</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.01025051687396</v>
@@ -27545,7 +27509,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.451833591123511</v>
+        <v>1.443331819323854</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.02950143780775</v>
@@ -27634,7 +27598,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.46020184786821</v>
+        <v>1.452702949540547</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.136074469298074</v>
@@ -27723,7 +27687,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.468763679241711</v>
+        <v>1.459934898521672</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.10038936902219</v>
@@ -27812,7 +27776,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.458655289551804</v>
+        <v>1.445110965525987</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.048634571492059</v>
@@ -27901,7 +27865,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.459413306694922</v>
+        <v>1.445657814915512</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.06909976233008</v>
@@ -27990,7 +27954,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.463830959552156</v>
+        <v>1.448226680289902</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.073937155319421</v>
@@ -28079,7 +28043,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.470375061588159</v>
+        <v>1.453170887428887</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.056181457356751</v>
@@ -28168,7 +28132,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.464098349478588</v>
+        <v>1.449351176658172</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.126501068538013</v>
@@ -28257,7 +28221,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.478806991735696</v>
+        <v>1.461337810165678</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.969051375777956</v>
@@ -28346,7 +28310,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.50388724481346</v>
+        <v>1.487411005424914</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.015129043959133</v>
@@ -28435,7 +28399,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.500063465362379</v>
+        <v>1.485320373220743</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.054912913647462</v>
@@ -28721,7 +28685,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.315765891264189</v>
+        <v>1.23730395861042</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.692337172747438</v>
@@ -28810,7 +28774,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.312717850923148</v>
+        <v>1.238865703436513</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.669409079947821</v>
@@ -28899,7 +28863,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.278432228616359</v>
+        <v>1.208589798671336</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.596510980794484</v>
@@ -28988,7 +28952,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.231791875877557</v>
+        <v>1.207657221344727</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.409437594281132</v>
@@ -29077,7 +29041,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.344178347471888</v>
+        <v>1.299934639403655</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.879568895752525</v>
@@ -29166,7 +29130,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.351280005171996</v>
+        <v>1.314671172503101</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.034155043701368</v>
@@ -29255,7 +29219,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.392995118834016</v>
+        <v>1.348732220664484</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.304774534724078</v>
@@ -29344,7 +29308,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.371888422870157</v>
+        <v>1.334375501233352</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.332199671384207</v>
@@ -29433,7 +29397,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.360783178683579</v>
+        <v>1.324978918716964</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.278349924762122</v>
@@ -29522,7 +29486,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.35170064552388</v>
+        <v>1.316354952506418</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.348645615723465</v>
@@ -29611,7 +29575,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.343275391901533</v>
+        <v>1.309287719189293</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.436020997256814</v>
@@ -29700,7 +29664,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.328024732373962</v>
+        <v>1.295611486636698</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.341521448345746</v>
@@ -29789,7 +29753,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.335286797650712</v>
+        <v>1.304502444193988</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.394087686927007</v>
@@ -29878,7 +29842,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.333017968781584</v>
+        <v>1.301535263447663</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.442690450538923</v>
@@ -29967,7 +29931,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.338369934223175</v>
+        <v>1.305118490338772</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.19936710891676</v>
@@ -30056,7 +30020,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.333569760155263</v>
+        <v>1.299029941380109</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.294249861225633</v>
@@ -30145,7 +30109,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.323748409193868</v>
+        <v>1.287285570334511</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.407606720480211</v>
@@ -30234,7 +30198,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.337052197205875</v>
+        <v>1.2965893459673</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.359282944658758</v>
@@ -30323,7 +30287,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.331874239933473</v>
+        <v>1.29207895438867</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.272055300761028</v>
@@ -30412,7 +30376,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.350596396548511</v>
+        <v>1.308974976165786</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.306795600146917</v>
@@ -30501,7 +30465,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.365986047670379</v>
+        <v>1.316227608421233</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.369992780158966</v>
@@ -30590,7 +30554,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.369867004481756</v>
+        <v>1.324097445751591</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.238957798630012</v>
@@ -30679,7 +30643,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.381577552411144</v>
+        <v>1.329778452905917</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.439393245107237</v>
@@ -30768,7 +30732,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.357772176463843</v>
+        <v>1.310896646072514</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.276181991573594</v>
@@ -30857,7 +30821,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.362213933173706</v>
+        <v>1.313562111966722</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.19468455475671</v>
@@ -30946,7 +30910,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.377730324033595</v>
+        <v>1.324943522654065</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.248772243103097</v>
@@ -31035,7 +30999,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.374799925737114</v>
+        <v>1.322220734255877</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.405917146079431</v>
@@ -31124,7 +31088,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.377535353145604</v>
+        <v>1.323927368824947</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.386385739563271</v>
@@ -31213,7 +31177,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.398471631333114</v>
+        <v>1.338081629497732</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.408177433634466</v>
@@ -31302,7 +31266,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.40103734743763</v>
+        <v>1.340415263985603</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.40663299718602</v>
@@ -31391,7 +31355,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.410504882439341</v>
+        <v>1.350203925553535</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.327093206887588</v>
@@ -31480,7 +31444,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.400298092172436</v>
+        <v>1.344279602094234</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.368797136468374</v>
@@ -31569,7 +31533,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.393818525887247</v>
+        <v>1.338979908066808</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.34016077427249</v>
@@ -31658,7 +31622,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.388459427553888</v>
+        <v>1.3384015861794</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.45888194944842</v>
@@ -31747,7 +31711,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.383828850287791</v>
+        <v>1.336593177947682</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.426917140615976</v>
@@ -31836,7 +31800,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.388874861979207</v>
+        <v>1.346127902899014</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.242016344618026</v>
@@ -31925,7 +31889,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.380590298271824</v>
+        <v>1.340532868883875</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.481788739863958</v>
@@ -32014,7 +31978,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.404348044675625</v>
+        <v>1.36315846777289</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.386830525388905</v>
@@ -32103,7 +32067,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.427975765606256</v>
+        <v>1.382917859991239</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.255532719243682</v>
@@ -32192,7 +32156,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.428420125344823</v>
+        <v>1.381384525277101</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.375890118346645</v>
@@ -32281,7 +32245,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.407390594235658</v>
+        <v>1.362090810193514</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.47403833079251</v>
@@ -32370,7 +32334,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.431063158668127</v>
+        <v>1.381753422503738</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.458800631002974</v>
@@ -32459,7 +32423,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.415721241628988</v>
+        <v>1.365077890983116</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.444081751308967</v>
@@ -32548,7 +32512,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.385964947513217</v>
+        <v>1.345380894652402</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.535339557786057</v>
@@ -32637,7 +32601,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.367506989471703</v>
+        <v>1.323452647870041</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.642418967340018</v>
@@ -32726,7 +32690,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.370598873647187</v>
+        <v>1.331237095899409</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.206386278647445</v>
@@ -32815,7 +32779,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.385534696496299</v>
+        <v>1.343490704018158</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.40171338170526</v>
@@ -32904,7 +32868,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.386515296926455</v>
+        <v>1.345550936118042</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.270288123379084</v>
@@ -32993,7 +32957,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.386693495585203</v>
+        <v>1.346266694134606</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.436396910264319</v>
